--- a/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
+++ b/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1D6E9-D256-4341-B9E9-BDF808372C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3067490-65DA-4439-A39D-CFD3EDEBBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empty Cart" sheetId="1" r:id="rId1"/>
+    <sheet name="ID - Quantity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="131">
   <si>
     <t>Khi truy cập vào trang thì giỏ hàng phải ở trạng thái rỗng</t>
   </si>
@@ -391,6 +392,33 @@
   </si>
   <si>
     <t>thành phần nằm trong namspace nên phải có từ khóa export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    // Buy Product</t>
+  </si>
+  <si>
+    <t>    $("a.price").on("click", function(){</t>
+  </si>
+  <si>
+    <t>        let id : number = $(this).data("product");</t>
+  </si>
+  <si>
+    <t>        let quantity: number = +$("input[name='quantity-product-" + id + "']").val();</t>
+  </si>
+  <si>
+    <t>    });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    …</t>
+  </si>
+  <si>
+    <t>Để mua 1 sản phẩm thì cần click vào giá tiền của sản phẩm. Do đó khi click vào giá của sản phẩm thì phải lấy được id của sản</t>
+  </si>
+  <si>
+    <t>phẩm đó và số lượng mua</t>
   </si>
 </sst>
 </file>
@@ -979,6 +1007,576 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133B09F8-DDC5-64F7-BC2D-62DC2CDEF311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2419350" y="21869400"/>
+          <a:ext cx="171450" cy="14411325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EFEC10-CCF0-E94F-46AF-08AE9C8796F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="20364450"/>
+          <a:ext cx="742950" cy="15887700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427809</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7182942E-CAAA-5811-813C-E43EFAF319A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17335500"/>
+          <a:ext cx="6523809" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C8129E-4C20-37E0-5667-53AFD9C954E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="18154650"/>
+          <a:ext cx="1514475" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A5BCA1-C26D-F3CD-E323-FBC91A5A91E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2533650" y="23021925"/>
+          <a:ext cx="161925" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2426EC6C-9031-314D-6FF6-217AFD242435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="21516975"/>
+          <a:ext cx="609600" cy="5229225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>490993</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>180334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251D3B61-804C-7BF6-56F4-9078A82CEA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191251" y="12068175"/>
+          <a:ext cx="5882142" cy="4495159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC968AB-0F0B-8DFA-9D6C-97299055AB78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1419225" y="14258925"/>
+          <a:ext cx="9448800" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4446DD7A-C2FA-0717-0B4A-EBCA54822718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6667500" y="13954125"/>
+          <a:ext cx="4524375" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693BA5C0-C42F-61DE-A4D5-F27073384BE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="16154400"/>
+          <a:ext cx="1057275" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC934F84-A856-06C0-7F2A-C199939B244F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2200275" y="7019925"/>
+          <a:ext cx="390525" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1247,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,4 +4066,1513 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD270DE-BFE1-4276-9AD1-B6B6F38D4E04}">
+  <dimension ref="A2:J143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="10"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="17"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="12"/>
+      <c r="H116" s="17"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="11"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="17"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="17"/>
+      <c r="I121" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="17"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="17"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="11"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="17"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="12"/>
+      <c r="H125" s="17"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="17"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="17"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="17"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="17"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="20"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
+++ b/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3067490-65DA-4439-A39D-CFD3EDEBBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B02E22-6FE5-400B-95AE-C5C8ACC6786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empty Cart" sheetId="1" r:id="rId1"/>
     <sheet name="ID - Quantity" sheetId="2" r:id="rId2"/>
+    <sheet name="Validate Quantity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="157">
   <si>
     <t>Khi truy cập vào trang thì giỏ hàng phải ở trạng thái rỗng</t>
   </si>
@@ -419,6 +420,106 @@
   </si>
   <si>
     <t>phẩm đó và số lượng mua</t>
+  </si>
+  <si>
+    <t>validate.ts</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>typescript\3.shopping\ts\libs\validate.ts</t>
+  </si>
+  <si>
+    <t>export class Validate {</t>
+  </si>
+  <si>
+    <t>    public static isNumber(value : any) : boolean {</t>
+  </si>
+  <si>
+    <t>        return !isNaN(parseFloat(value)) &amp;&amp; isFinite(value);</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    public static checkQuantity(value: any) : boolean {</t>
+  </si>
+  <si>
+    <t>        if(value &lt; 1 || Validate.isNumber(value) == false ) {</t>
+  </si>
+  <si>
+    <t>            return false;</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>        return true;</t>
+  </si>
+  <si>
+    <t>import { Validate } from './libs/validate';</t>
+  </si>
+  <si>
+    <t>    export const NOTI_READY_TO_BUY: string = "Ready to buy product";</t>
+  </si>
+  <si>
+    <t>    export const NOTI_GREATER_THAN_ONE : string = "Quantity must equal or greater than 1";</t>
+  </si>
+  <si>
+    <t>        if(Validate.checkQuantity(quantity)){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>        } else {</t>
+  </si>
+  <si>
+    <t>            showNotification(MNotification.NOTI_GREATER_THAN_ONE);</t>
+  </si>
+  <si>
+    <t>validate.js</t>
+  </si>
+  <si>
+    <t>Khi click thêm sản phẩm vào giỏ hàng thì cần phải validate giá trị quantity có hợp lệ hay ko(&gt;0)</t>
+  </si>
+  <si>
+    <t>Kiểm tra giá trị truyền vào có phải là con số hay không</t>
+  </si>
+  <si>
+    <t>quantity có kiểu number nên giá trị của nó cũng nên ép về kiểu số bằng cách dùng dấu "+" ở trước</t>
+  </si>
+  <si>
+    <t>Kiểm tra số nhập vào nhỏ hơn hoặc bằng 0</t>
+  </si>
+  <si>
+    <t>Kiểm tra giá trị nhập vào ko phải là số</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        let quantity: number = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$("input[name='quantity-product-" + id + "']").val();</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1580,6 +1681,726 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>133238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6F779C-9554-9C0E-7BDD-72CA38FE6B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21907500"/>
+          <a:ext cx="6600000" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDE78AD-54FF-AEBB-AFA1-AAEC79FC536F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2466975" y="27955875"/>
+          <a:ext cx="314325" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A12570-D1AA-12AE-3E39-30927E93EAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="26269950"/>
+          <a:ext cx="523875" cy="5629275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C4ACEE-E26C-57AF-2C7A-EE4A064702EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="14478000"/>
+          <a:ext cx="1343025" cy="5972175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1BE264-102A-0028-8D07-480217DEECA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="8915400"/>
+          <a:ext cx="838200" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669D7C2A-8632-39F0-1D04-4A7302066EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="9667875"/>
+          <a:ext cx="228600" cy="10239375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F2621B-75C1-A578-158D-CD74033D2E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="342900"/>
+          <a:ext cx="1085850" cy="8124825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>453889</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5A790D-CAF5-D74A-8842-C513E08B8528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="33051750"/>
+          <a:ext cx="10778989" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A488FE-59D1-F135-4BE5-06ABDFAE0921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="32946975"/>
+          <a:ext cx="3267075" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C0F97E-2EDF-9579-A253-B0BA7839008B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="32946975"/>
+          <a:ext cx="4105275" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>271412</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3866493C-13FC-1CBB-2554-B367D2FBBDB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695326" y="37223700"/>
+          <a:ext cx="10548886" cy="5086350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9F3D0C-6914-4269-B35B-ADC466722E83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="37118925"/>
+          <a:ext cx="3143250" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25602479-3B23-94B2-648A-DFD49D2A266C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="37099875"/>
+          <a:ext cx="3886200" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78C0729-1E09-A5FB-325F-54DFA76D0E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="37099875"/>
+          <a:ext cx="1581150" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1845,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U193"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
@@ -4072,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD270DE-BFE1-4276-9AD1-B6B6F38D4E04}">
   <dimension ref="A2:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5575,4 +6396,1847 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B15858-1382-40F4-9D95-1273EA685ECF}">
+  <dimension ref="A2:L195"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="O93" sqref="O93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="17"/>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="6"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="6"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="6"/>
+      <c r="K103" t="s">
+        <v>34</v>
+      </c>
+      <c r="L103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="6"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="10"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="11"/>
+      <c r="B124" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="17"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="17"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="17"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="17"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="17"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="17"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="17"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="17"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="17"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="17"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="12"/>
+      <c r="H141" s="17"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G142" s="12"/>
+      <c r="H142" s="17"/>
+      <c r="I142" t="s">
+        <v>34</v>
+      </c>
+      <c r="J142" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="17"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="17"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="17"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="17"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="17"/>
+      <c r="I147" t="s">
+        <v>34</v>
+      </c>
+      <c r="J147" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="17"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="17"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="17"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G151" s="12"/>
+      <c r="H151" s="17"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G152" s="12"/>
+      <c r="H152" s="17"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="17"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="17"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="17"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="17"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="17"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="17"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="17"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="17"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="20"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="10"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
+++ b/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B02E22-6FE5-400B-95AE-C5C8ACC6786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F053517-1125-42E9-A343-CDCF6B91977E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empty Cart" sheetId="1" r:id="rId1"/>
     <sheet name="ID - Quantity" sheetId="2" r:id="rId2"/>
     <sheet name="Validate Quantity" sheetId="3" r:id="rId3"/>
+    <sheet name="AddProduct, GetCartItemPosition" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="210">
   <si>
     <t>Khi truy cập vào trang thì giỏ hàng phải ở trạng thái rỗng</t>
   </si>
@@ -521,6 +522,165 @@
       <t>$("input[name='quantity-product-" + id + "']").val();</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Thêm sản phẩm vào trong giỏ hàng(Cart), trong giỏ hàng có nhiều CartItem. </t>
+  </si>
+  <si>
+    <t>Mỗi sản phẩm được thêm vào giỏ hàng tương đương với 1 đối tượng CartItem</t>
+  </si>
+  <si>
+    <t>typescript\3.shopping\ts\cart.ts</t>
+  </si>
+  <si>
+    <t>import { CartItem } from './cart-item';</t>
+  </si>
+  <si>
+    <t>export class Cart {</t>
+  </si>
+  <si>
+    <t>    private cartItems: CartItem[] = [];</t>
+  </si>
+  <si>
+    <t>    private totalQuantity: number = 0;</t>
+  </si>
+  <si>
+    <t>    private totalPrice: number = 0;</t>
+  </si>
+  <si>
+    <t>    public addProduct (product: Product, quantity: number = 1) : void {</t>
+  </si>
+  <si>
+    <t>        let position : number = this.getProductPosition (product);</t>
+  </si>
+  <si>
+    <t>        if(position &gt; -1) {</t>
+  </si>
+  <si>
+    <t>            this.cartItems[position].quantity += quantity;</t>
+  </si>
+  <si>
+    <t>        }else {</t>
+  </si>
+  <si>
+    <t>            this.cartItems[this.cartItems.length] = new CartItem(product, quantity);</t>
+  </si>
+  <si>
+    <t>    private getProductPosition (product : Product) : number {</t>
+  </si>
+  <si>
+    <t>        let total : number = this.cartItems.length;</t>
+  </si>
+  <si>
+    <t>        for(let i : number = 0; i &lt; total; i++){</t>
+  </si>
+  <si>
+    <t>            if(this.cartItems[i].product.id == product.id) return i;</t>
+  </si>
+  <si>
+    <t>        return -1;</t>
+  </si>
+  <si>
+    <t>    public updateProduct (product: Product, quantity: number = 1) :void {</t>
+  </si>
+  <si>
+    <t>    public removeProduct (product: Product) : void {</t>
+  </si>
+  <si>
+    <t>    public isEmpty () : boolean {</t>
+  </si>
+  <si>
+    <t>        return (this.cartItems.length == 0);</t>
+  </si>
+  <si>
+    <t>    public getTotalQuantity () : number {</t>
+  </si>
+  <si>
+    <t>        return 1;</t>
+  </si>
+  <si>
+    <t>    public getTotalPrice () : number {</t>
+  </si>
+  <si>
+    <t>    public showCartBodyInHTML () : string {</t>
+  </si>
+  <si>
+    <t>        return "";</t>
+  </si>
+  <si>
+    <t>    public showCartFooterInHTML () : string {</t>
+  </si>
+  <si>
+    <t>import { Cart } from './cart';</t>
+  </si>
+  <si>
+    <t>let cartObj = new Cart();</t>
+  </si>
+  <si>
+    <t>// Add Product</t>
+  </si>
+  <si>
+    <t>function addProduct(id : number, quantity : number) {</t>
+  </si>
+  <si>
+    <t>    if(Validate.checkQuantity(quantity)){</t>
+  </si>
+  <si>
+    <t>        let product : Product = productRepository.getItemByID(id);</t>
+  </si>
+  <si>
+    <t>        cartObj.addProduct(product, quantity);</t>
+  </si>
+  <si>
+    <t>    } else {</t>
+  </si>
+  <si>
+    <t>        showNotification(MNotification.NOTI_GREATER_THAN_ONE);</t>
+  </si>
+  <si>
+    <t>        addProduct(id, quantity);</t>
+  </si>
+  <si>
+    <t>        return false;</t>
+  </si>
+  <si>
+    <t>Thêm 1 sản phẩm vào trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Lúc đầu click thêm 1 sản phẩm nào đó vào giỏ hàng, sau đó click thêm 1 lần nữa thì tổng số lượng sản phẩm đó phải được cộng dồn</t>
+  </si>
+  <si>
+    <t>Khi click vào để thêm sản phẩm vào giỏ hàng thì phải kiểm tra xem sản phẩm đó đã tồn tại trong giỏ hàng hay chưa</t>
+  </si>
+  <si>
+    <t>Nếu chưa tồn tại trong giỏ hàng thì thêm như bình thường</t>
+  </si>
+  <si>
+    <t>Nếu đã tồn tại rồi thì phải cập nhật lại số lượng sản phẩm đó trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem sản phẩm mà mình thêm vào đã tồn tại trong giỏ hàng hay chưa. Phương thức này kiểm tra xem</t>
+  </si>
+  <si>
+    <t>1 sản phẩm nào đó nằm ở chỉ số là bao nhiêu trong mảng cartItems. Nếu như chỉ số của nó &gt;=0 có nghĩa là</t>
+  </si>
+  <si>
+    <t>sản phẩm đó đã tồn tại trong giỏ hàng, còn ngược lại thì sản phẩm đó chưa tồn tại trong giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        console.log(this.cartItems);</t>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t>Nhấn lần 1 để thêm 2 sản phẩm bulbasaur vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Tiếp tục nhấn để thêm 3 sản phẩm bulbasaur vào giỏ hàng do đó tổng số lượng của sẽ là 5</t>
+  </si>
+  <si>
+    <t>Thêm 4 sản phẩm charmander vào trong giỏ hàng</t>
+  </si>
 </sst>
 </file>
 
@@ -542,15 +702,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -647,11 +813,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -677,6 +914,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2401,6 +2646,938 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8C3C0D-E16E-B1BE-449F-F4163070125C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="904875" y="26984325"/>
+          <a:ext cx="333375" cy="3552825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22F79EA-ABFD-2BC5-1835-CBBFD4FFA436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1228725" y="10620375"/>
+          <a:ext cx="638175" cy="17068800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C09A0D4-C125-83ED-01BD-8B2BAE87073B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2276475" y="10820400"/>
+          <a:ext cx="904875" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F105917-A847-CD9C-95FC-DDEA95D2FCE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1724025" y="7010400"/>
+          <a:ext cx="809625" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1515E198-B260-716F-75C7-1806355D7699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="20526375"/>
+          <a:ext cx="190500" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFCB471-AABB-2479-C3DD-FFE3BC6DC26C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="733425"/>
+          <a:ext cx="4810125" cy="10239375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FFA60F-E0E6-FD10-0E39-F0CCBD16153C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5162550" y="11163300"/>
+          <a:ext cx="952500" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE75E67-B04E-CB5A-2B89-C504BD8DC0F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3667125" y="11182350"/>
+          <a:ext cx="2438400" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>246809</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>85113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D3BE27-1C92-6400-DF93-618EBA07019F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="13668375"/>
+          <a:ext cx="6723809" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C744E5-BD05-AACC-9B91-9A6FBD2634DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="11953875"/>
+          <a:ext cx="3619500" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCFBD37-2014-3E5B-7284-39D5D437722A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="13496925"/>
+          <a:ext cx="4591050" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8F457C-ED62-4B6C-ABC5-AB2D9CF6B5BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10134600" y="15725775"/>
+          <a:ext cx="2428875" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>94417</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>75508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C32322-CCFE-B716-F14F-DDDA9E1ED793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="19116675"/>
+          <a:ext cx="6666667" cy="5533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F874CB2-F1CC-B252-9B0B-1F8388F0183F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="19030950"/>
+          <a:ext cx="4343400" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B3CFC5-5AF3-CEDB-97BB-649A4154EFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9953625" y="21221700"/>
+          <a:ext cx="2486025" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>46796</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>170649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C359CE92-C942-405C-512C-221CF97B470C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="25384125"/>
+          <a:ext cx="6628571" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46D4BC1-DCA0-C868-F45F-640975A9B17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="25298400"/>
+          <a:ext cx="5191125" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265AC72A-8B81-5F2F-7E45-0D273A369E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10010775" y="26469975"/>
+          <a:ext cx="2390775" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6402,8 +7579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B15858-1382-40F4-9D95-1273EA685ECF}">
   <dimension ref="A2:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="O93" sqref="O93"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8239,4 +9416,3202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3EA27B-D0CC-4900-8698-65DC4FC303DD}">
+  <dimension ref="A2:W168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F159" workbookViewId="0">
+      <selection activeCell="V65" sqref="V65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="17"/>
+      <c r="I37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="17"/>
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="6"/>
+      <c r="J56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B58" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="6"/>
+      <c r="J58" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="4"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B59" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="6"/>
+      <c r="K59" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="6"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B60" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="6"/>
+      <c r="K60" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="10"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B63" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="6"/>
+      <c r="J66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="6"/>
+      <c r="K67" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="6"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="6"/>
+      <c r="K68" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="10"/>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="6"/>
+      <c r="K70" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B71" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="6"/>
+      <c r="L71" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="28"/>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B72" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="6"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="29"/>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="6"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="29"/>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="6"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="29"/>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="6"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="29"/>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="6"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="29"/>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="6"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="29"/>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="6"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="29"/>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="6"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="29"/>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="6"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="29"/>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="6"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="29"/>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="6"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="29"/>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="6"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="29"/>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="6"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="29"/>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="6"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="29"/>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="6"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="29"/>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="6"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="29"/>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="6"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="29"/>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="6"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="29"/>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="6"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="21"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="29"/>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="6"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="29"/>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="6"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="29"/>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="6"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="29"/>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="6"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="29"/>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="6"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="29"/>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="6"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="29"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="6"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="29"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="6"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="29"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="6"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="29"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="6"/>
+      <c r="L100" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="29"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="10"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="29"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L102" s="1"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="29"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L103" s="1"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="29"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" s="1"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="29"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="4"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="21"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="29"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B106" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="6"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="29"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="6"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="21"/>
+      <c r="S107" s="21"/>
+      <c r="T107" s="21"/>
+      <c r="U107" s="21"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="29"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B108" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="6"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="21"/>
+      <c r="S108" s="21"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="21"/>
+      <c r="W108" s="29"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="6"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="29"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="6"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="29"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="6"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="29"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="6"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="21"/>
+      <c r="S112" s="21"/>
+      <c r="T112" s="21"/>
+      <c r="U112" s="21"/>
+      <c r="V112" s="21"/>
+      <c r="W112" s="29"/>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="6"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="21"/>
+      <c r="S113" s="21"/>
+      <c r="T113" s="21"/>
+      <c r="U113" s="21"/>
+      <c r="V113" s="21"/>
+      <c r="W113" s="29"/>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="6"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="21"/>
+      <c r="Q114" s="21"/>
+      <c r="R114" s="21"/>
+      <c r="S114" s="21"/>
+      <c r="T114" s="21"/>
+      <c r="U114" s="21"/>
+      <c r="V114" s="21"/>
+      <c r="W114" s="29"/>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="6"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="21"/>
+      <c r="Q115" s="21"/>
+      <c r="R115" s="21"/>
+      <c r="S115" s="21"/>
+      <c r="T115" s="21"/>
+      <c r="U115" s="21"/>
+      <c r="V115" s="21"/>
+      <c r="W115" s="29"/>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="6"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="29"/>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="6"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="21"/>
+      <c r="Q117" s="21"/>
+      <c r="R117" s="21"/>
+      <c r="S117" s="21"/>
+      <c r="T117" s="21"/>
+      <c r="U117" s="21"/>
+      <c r="V117" s="21"/>
+      <c r="W117" s="29"/>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="6"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="29"/>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="6"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="21"/>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="21"/>
+      <c r="V119" s="21"/>
+      <c r="W119" s="29"/>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="6"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="21"/>
+      <c r="S120" s="21"/>
+      <c r="T120" s="21"/>
+      <c r="U120" s="21"/>
+      <c r="V120" s="21"/>
+      <c r="W120" s="29"/>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="6"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="21"/>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="29"/>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="6"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="21"/>
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="21"/>
+      <c r="W122" s="29"/>
+    </row>
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B123" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="6"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="29"/>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="6"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21"/>
+      <c r="P124" s="21"/>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="29"/>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="6"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="21"/>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21"/>
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="29"/>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="6"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
+      <c r="O126" s="21"/>
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="29"/>
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="6"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="21"/>
+      <c r="O127" s="21"/>
+      <c r="P127" s="21"/>
+      <c r="Q127" s="21"/>
+      <c r="R127" s="21"/>
+      <c r="S127" s="21"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="21"/>
+      <c r="V127" s="21"/>
+      <c r="W127" s="29"/>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="6"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="21"/>
+      <c r="O128" s="21"/>
+      <c r="P128" s="21"/>
+      <c r="Q128" s="21"/>
+      <c r="R128" s="21"/>
+      <c r="S128" s="21"/>
+      <c r="T128" s="21"/>
+      <c r="U128" s="21"/>
+      <c r="V128" s="21"/>
+      <c r="W128" s="29"/>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="6"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="21"/>
+      <c r="O129" s="21"/>
+      <c r="P129" s="21"/>
+      <c r="Q129" s="21"/>
+      <c r="R129" s="21"/>
+      <c r="S129" s="21"/>
+      <c r="T129" s="21"/>
+      <c r="U129" s="21"/>
+      <c r="V129" s="21"/>
+      <c r="W129" s="29"/>
+    </row>
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="6"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="21"/>
+      <c r="N130" s="21"/>
+      <c r="O130" s="21"/>
+      <c r="P130" s="21"/>
+      <c r="Q130" s="21"/>
+      <c r="R130" s="21"/>
+      <c r="S130" s="21"/>
+      <c r="T130" s="21"/>
+      <c r="U130" s="21"/>
+      <c r="V130" s="21"/>
+      <c r="W130" s="29"/>
+    </row>
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="6"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21"/>
+      <c r="O131" s="21"/>
+      <c r="P131" s="21"/>
+      <c r="Q131" s="21"/>
+      <c r="R131" s="21"/>
+      <c r="S131" s="21"/>
+      <c r="T131" s="21"/>
+      <c r="U131" s="21"/>
+      <c r="V131" s="21"/>
+      <c r="W131" s="29"/>
+    </row>
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="6"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="21"/>
+      <c r="N132" s="21"/>
+      <c r="O132" s="21"/>
+      <c r="P132" s="21"/>
+      <c r="Q132" s="21"/>
+      <c r="R132" s="21"/>
+      <c r="S132" s="21"/>
+      <c r="T132" s="21"/>
+      <c r="U132" s="21"/>
+      <c r="V132" s="21"/>
+      <c r="W132" s="29"/>
+    </row>
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="6"/>
+      <c r="L133" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21"/>
+      <c r="O133" s="21"/>
+      <c r="P133" s="21"/>
+      <c r="Q133" s="21"/>
+      <c r="R133" s="21"/>
+      <c r="S133" s="21"/>
+      <c r="T133" s="21"/>
+      <c r="U133" s="21"/>
+      <c r="V133" s="21"/>
+      <c r="W133" s="29"/>
+    </row>
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="6"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
+      <c r="O134" s="21"/>
+      <c r="P134" s="21"/>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
+      <c r="W134" s="29"/>
+    </row>
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="6"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+      <c r="O135" s="21"/>
+      <c r="P135" s="21"/>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="29"/>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="6"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21"/>
+      <c r="O136" s="21"/>
+      <c r="P136" s="21"/>
+      <c r="Q136" s="21"/>
+      <c r="R136" s="21"/>
+      <c r="S136" s="21"/>
+      <c r="T136" s="21"/>
+      <c r="U136" s="21"/>
+      <c r="V136" s="21"/>
+      <c r="W136" s="29"/>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="6"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+      <c r="O137" s="21"/>
+      <c r="P137" s="21"/>
+      <c r="Q137" s="21"/>
+      <c r="R137" s="21"/>
+      <c r="S137" s="21"/>
+      <c r="T137" s="21"/>
+      <c r="U137" s="21"/>
+      <c r="V137" s="21"/>
+      <c r="W137" s="29"/>
+    </row>
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="6"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21"/>
+      <c r="O138" s="21"/>
+      <c r="P138" s="21"/>
+      <c r="Q138" s="21"/>
+      <c r="R138" s="21"/>
+      <c r="S138" s="21"/>
+      <c r="T138" s="21"/>
+      <c r="U138" s="21"/>
+      <c r="V138" s="21"/>
+      <c r="W138" s="29"/>
+    </row>
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="6"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+      <c r="O139" s="21"/>
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="29"/>
+    </row>
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
+      <c r="J140" s="6"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="21"/>
+      <c r="N140" s="21"/>
+      <c r="O140" s="21"/>
+      <c r="P140" s="21"/>
+      <c r="Q140" s="21"/>
+      <c r="R140" s="21"/>
+      <c r="S140" s="21"/>
+      <c r="T140" s="21"/>
+      <c r="U140" s="21"/>
+      <c r="V140" s="21"/>
+      <c r="W140" s="29"/>
+    </row>
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B141" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="6"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="21"/>
+      <c r="N141" s="21"/>
+      <c r="O141" s="21"/>
+      <c r="P141" s="21"/>
+      <c r="Q141" s="21"/>
+      <c r="R141" s="21"/>
+      <c r="S141" s="21"/>
+      <c r="T141" s="21"/>
+      <c r="U141" s="21"/>
+      <c r="V141" s="21"/>
+      <c r="W141" s="29"/>
+    </row>
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B142" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="6"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="21"/>
+      <c r="N142" s="21"/>
+      <c r="O142" s="21"/>
+      <c r="P142" s="21"/>
+      <c r="Q142" s="21"/>
+      <c r="R142" s="21"/>
+      <c r="S142" s="21"/>
+      <c r="T142" s="21"/>
+      <c r="U142" s="21"/>
+      <c r="V142" s="21"/>
+      <c r="W142" s="29"/>
+    </row>
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B143" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+      <c r="J143" s="6"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="21"/>
+      <c r="N143" s="21"/>
+      <c r="O143" s="21"/>
+      <c r="P143" s="21"/>
+      <c r="Q143" s="21"/>
+      <c r="R143" s="21"/>
+      <c r="S143" s="21"/>
+      <c r="T143" s="21"/>
+      <c r="U143" s="21"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="29"/>
+    </row>
+    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B144" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="6"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="21"/>
+      <c r="N144" s="21"/>
+      <c r="O144" s="21"/>
+      <c r="P144" s="21"/>
+      <c r="Q144" s="21"/>
+      <c r="R144" s="21"/>
+      <c r="S144" s="21"/>
+      <c r="T144" s="21"/>
+      <c r="U144" s="21"/>
+      <c r="V144" s="21"/>
+      <c r="W144" s="29"/>
+    </row>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B145" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="6"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="21"/>
+      <c r="N145" s="21"/>
+      <c r="O145" s="21"/>
+      <c r="P145" s="21"/>
+      <c r="Q145" s="21"/>
+      <c r="R145" s="21"/>
+      <c r="S145" s="21"/>
+      <c r="T145" s="21"/>
+      <c r="U145" s="21"/>
+      <c r="V145" s="21"/>
+      <c r="W145" s="29"/>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B146" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="6"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="21"/>
+      <c r="O146" s="21"/>
+      <c r="P146" s="21"/>
+      <c r="Q146" s="21"/>
+      <c r="R146" s="21"/>
+      <c r="S146" s="21"/>
+      <c r="T146" s="21"/>
+      <c r="U146" s="21"/>
+      <c r="V146" s="21"/>
+      <c r="W146" s="29"/>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B147" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="6"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="21"/>
+      <c r="N147" s="21"/>
+      <c r="O147" s="21"/>
+      <c r="P147" s="21"/>
+      <c r="Q147" s="21"/>
+      <c r="R147" s="21"/>
+      <c r="S147" s="21"/>
+      <c r="T147" s="21"/>
+      <c r="U147" s="21"/>
+      <c r="V147" s="21"/>
+      <c r="W147" s="29"/>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B148" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="6"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="21"/>
+      <c r="O148" s="21"/>
+      <c r="P148" s="21"/>
+      <c r="Q148" s="21"/>
+      <c r="R148" s="21"/>
+      <c r="S148" s="21"/>
+      <c r="T148" s="21"/>
+      <c r="U148" s="21"/>
+      <c r="V148" s="21"/>
+      <c r="W148" s="29"/>
+    </row>
+    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B149" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="6"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="21"/>
+      <c r="N149" s="21"/>
+      <c r="O149" s="21"/>
+      <c r="P149" s="21"/>
+      <c r="Q149" s="21"/>
+      <c r="R149" s="21"/>
+      <c r="S149" s="21"/>
+      <c r="T149" s="21"/>
+      <c r="U149" s="21"/>
+      <c r="V149" s="21"/>
+      <c r="W149" s="29"/>
+    </row>
+    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="6"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="21"/>
+      <c r="O150" s="21"/>
+      <c r="P150" s="21"/>
+      <c r="Q150" s="21"/>
+      <c r="R150" s="21"/>
+      <c r="S150" s="21"/>
+      <c r="T150" s="21"/>
+      <c r="U150" s="21"/>
+      <c r="V150" s="21"/>
+      <c r="W150" s="29"/>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
+      <c r="J151" s="6"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="21"/>
+      <c r="N151" s="21"/>
+      <c r="O151" s="21"/>
+      <c r="P151" s="21"/>
+      <c r="Q151" s="21"/>
+      <c r="R151" s="21"/>
+      <c r="S151" s="21"/>
+      <c r="T151" s="21"/>
+      <c r="U151" s="21"/>
+      <c r="V151" s="21"/>
+      <c r="W151" s="29"/>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
+      <c r="J152" s="6"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="21"/>
+      <c r="N152" s="21"/>
+      <c r="O152" s="21"/>
+      <c r="P152" s="21"/>
+      <c r="Q152" s="21"/>
+      <c r="R152" s="21"/>
+      <c r="S152" s="21"/>
+      <c r="T152" s="21"/>
+      <c r="U152" s="21"/>
+      <c r="V152" s="21"/>
+      <c r="W152" s="29"/>
+    </row>
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+      <c r="J153" s="6"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="21"/>
+      <c r="P153" s="21"/>
+      <c r="Q153" s="21"/>
+      <c r="R153" s="21"/>
+      <c r="S153" s="21"/>
+      <c r="T153" s="21"/>
+      <c r="U153" s="21"/>
+      <c r="V153" s="21"/>
+      <c r="W153" s="29"/>
+    </row>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
+      <c r="J154" s="6"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="21"/>
+      <c r="O154" s="21"/>
+      <c r="P154" s="21"/>
+      <c r="Q154" s="21"/>
+      <c r="R154" s="21"/>
+      <c r="S154" s="21"/>
+      <c r="T154" s="21"/>
+      <c r="U154" s="21"/>
+      <c r="V154" s="21"/>
+      <c r="W154" s="29"/>
+    </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="6"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="21"/>
+      <c r="O155" s="21"/>
+      <c r="P155" s="21"/>
+      <c r="Q155" s="21"/>
+      <c r="R155" s="21"/>
+      <c r="S155" s="21"/>
+      <c r="T155" s="21"/>
+      <c r="U155" s="21"/>
+      <c r="V155" s="21"/>
+      <c r="W155" s="29"/>
+    </row>
+    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="6"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="21"/>
+      <c r="O156" s="21"/>
+      <c r="P156" s="21"/>
+      <c r="Q156" s="21"/>
+      <c r="R156" s="21"/>
+      <c r="S156" s="21"/>
+      <c r="T156" s="21"/>
+      <c r="U156" s="21"/>
+      <c r="V156" s="21"/>
+      <c r="W156" s="29"/>
+    </row>
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="6"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="21"/>
+      <c r="N157" s="21"/>
+      <c r="O157" s="21"/>
+      <c r="P157" s="21"/>
+      <c r="Q157" s="21"/>
+      <c r="R157" s="21"/>
+      <c r="S157" s="21"/>
+      <c r="T157" s="21"/>
+      <c r="U157" s="21"/>
+      <c r="V157" s="21"/>
+      <c r="W157" s="29"/>
+    </row>
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="6"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="21"/>
+      <c r="O158" s="21"/>
+      <c r="P158" s="21"/>
+      <c r="Q158" s="21"/>
+      <c r="R158" s="21"/>
+      <c r="S158" s="21"/>
+      <c r="T158" s="21"/>
+      <c r="U158" s="21"/>
+      <c r="V158" s="21"/>
+      <c r="W158" s="29"/>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="6"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="21"/>
+      <c r="N159" s="21"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="21"/>
+      <c r="Q159" s="21"/>
+      <c r="R159" s="21"/>
+      <c r="S159" s="21"/>
+      <c r="T159" s="21"/>
+      <c r="U159" s="21"/>
+      <c r="V159" s="21"/>
+      <c r="W159" s="29"/>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="6"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="21"/>
+      <c r="N160" s="21"/>
+      <c r="O160" s="21"/>
+      <c r="P160" s="21"/>
+      <c r="Q160" s="21"/>
+      <c r="R160" s="21"/>
+      <c r="S160" s="21"/>
+      <c r="T160" s="21"/>
+      <c r="U160" s="21"/>
+      <c r="V160" s="21"/>
+      <c r="W160" s="29"/>
+    </row>
+    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B161" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="6"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="21"/>
+      <c r="N161" s="21"/>
+      <c r="O161" s="21"/>
+      <c r="P161" s="21"/>
+      <c r="Q161" s="21"/>
+      <c r="R161" s="21"/>
+      <c r="S161" s="21"/>
+      <c r="T161" s="21"/>
+      <c r="U161" s="21"/>
+      <c r="V161" s="21"/>
+      <c r="W161" s="29"/>
+    </row>
+    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B162" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="6"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="21"/>
+      <c r="N162" s="21"/>
+      <c r="O162" s="21"/>
+      <c r="P162" s="21"/>
+      <c r="Q162" s="21"/>
+      <c r="R162" s="21"/>
+      <c r="S162" s="21"/>
+      <c r="T162" s="21"/>
+      <c r="U162" s="21"/>
+      <c r="V162" s="21"/>
+      <c r="W162" s="29"/>
+    </row>
+    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="6"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="21"/>
+      <c r="N163" s="21"/>
+      <c r="O163" s="21"/>
+      <c r="P163" s="21"/>
+      <c r="Q163" s="21"/>
+      <c r="R163" s="21"/>
+      <c r="S163" s="21"/>
+      <c r="T163" s="21"/>
+      <c r="U163" s="21"/>
+      <c r="V163" s="21"/>
+      <c r="W163" s="29"/>
+    </row>
+    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B164" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="10"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="21"/>
+      <c r="N164" s="21"/>
+      <c r="O164" s="21"/>
+      <c r="P164" s="21"/>
+      <c r="Q164" s="21"/>
+      <c r="R164" s="21"/>
+      <c r="S164" s="21"/>
+      <c r="T164" s="21"/>
+      <c r="U164" s="21"/>
+      <c r="V164" s="21"/>
+      <c r="W164" s="29"/>
+    </row>
+    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L165" s="1"/>
+      <c r="M165" s="21"/>
+      <c r="N165" s="21"/>
+      <c r="O165" s="21"/>
+      <c r="P165" s="21"/>
+      <c r="Q165" s="21"/>
+      <c r="R165" s="21"/>
+      <c r="S165" s="21"/>
+      <c r="T165" s="21"/>
+      <c r="U165" s="21"/>
+      <c r="V165" s="21"/>
+      <c r="W165" s="29"/>
+    </row>
+    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L166" s="1"/>
+      <c r="M166" s="21"/>
+      <c r="N166" s="21"/>
+      <c r="O166" s="21"/>
+      <c r="P166" s="21"/>
+      <c r="Q166" s="21"/>
+      <c r="R166" s="21"/>
+      <c r="S166" s="21"/>
+      <c r="T166" s="21"/>
+      <c r="U166" s="21"/>
+      <c r="V166" s="21"/>
+      <c r="W166" s="29"/>
+    </row>
+    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L167" s="1"/>
+      <c r="M167" s="21"/>
+      <c r="N167" s="21"/>
+      <c r="O167" s="21"/>
+      <c r="P167" s="21"/>
+      <c r="Q167" s="21"/>
+      <c r="R167" s="21"/>
+      <c r="S167" s="21"/>
+      <c r="T167" s="21"/>
+      <c r="U167" s="21"/>
+      <c r="V167" s="21"/>
+      <c r="W167" s="29"/>
+    </row>
+    <row r="168" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L168" s="30"/>
+      <c r="M168" s="31"/>
+      <c r="N168" s="31"/>
+      <c r="O168" s="31"/>
+      <c r="P168" s="31"/>
+      <c r="Q168" s="31"/>
+      <c r="R168" s="31"/>
+      <c r="S168" s="31"/>
+      <c r="T168" s="31"/>
+      <c r="U168" s="31"/>
+      <c r="V168" s="31"/>
+      <c r="W168" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
+++ b/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F053517-1125-42E9-A343-CDCF6B91977E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894CB392-1F5F-4457-9788-8E472B02485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empty Cart" sheetId="1" r:id="rId1"/>
     <sheet name="ID - Quantity" sheetId="2" r:id="rId2"/>
     <sheet name="Validate Quantity" sheetId="3" r:id="rId3"/>
     <sheet name="AddProduct, GetCartItemPosition" sheetId="4" r:id="rId4"/>
+    <sheet name="ShowCartBodyInHTML, ShowCartIte" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="260">
   <si>
     <t>Khi truy cập vào trang thì giỏ hàng phải ở trạng thái rỗng</t>
   </si>
@@ -680,6 +681,156 @@
   </si>
   <si>
     <t>Thêm 4 sản phẩm charmander vào trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>ShowCartBodyInHTML, ShowCartItemInHTML</t>
+  </si>
+  <si>
+    <t>typescript\3.shopping\ts\cart-item.ts</t>
+  </si>
+  <si>
+    <t>import { Helpers } from './libs/helpers';</t>
+  </si>
+  <si>
+    <t>export class CartItem {</t>
+  </si>
+  <si>
+    <t>    private _product: Product;</t>
+  </si>
+  <si>
+    <t>    private _quantity: number;</t>
+  </si>
+  <si>
+    <t>    constructor (product: Product, quantity: number = 1) {</t>
+  </si>
+  <si>
+    <t>        this._product = product;</t>
+  </si>
+  <si>
+    <t>        this._quantity = quantity;</t>
+  </si>
+  <si>
+    <t>    public showCartItemInHTML(index : number) : string {</t>
+  </si>
+  <si>
+    <t>        return `&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;th scope="row"&gt;${ index }&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;${ this.product.name }&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;${ Helpers.toCurrency(this.product.price, "USD", "right") }&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;&lt;input name="cart-item-quantity-${ this.product.id }" type="number" value="${ this.quantity }" min="1"&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;&lt;strong&gt;${ Helpers.toCurrency(this.getSubtotal(), "USD", "right") }&lt;/strong&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;a class="label label-info update-cart-item" href="#" data-product="${ this.product.id }"&gt;Update&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;a class="label label-danger delete-cart-item" href="#" data-product="${ this.product.id }"&gt;Delete&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/tr&gt;`;</t>
+  </si>
+  <si>
+    <t>    public getSubtotal() : number {</t>
+  </si>
+  <si>
+    <t>        return this.product.price * this.quantity;</t>
+  </si>
+  <si>
+    <t>    public get quantity() : number {</t>
+  </si>
+  <si>
+    <t>        return this._quantity;</t>
+  </si>
+  <si>
+    <t>    public set quantity(v : number) {</t>
+  </si>
+  <si>
+    <t>        this._quantity = v;</t>
+  </si>
+  <si>
+    <t>    public get product() : Product {</t>
+  </si>
+  <si>
+    <t>        return this._product;</t>
+  </si>
+  <si>
+    <t>    public set product(v : Product) {</t>
+  </si>
+  <si>
+    <t>        this._product = v;</t>
+  </si>
+  <si>
+    <t>        let xhtmlResult : string = ``;</t>
+  </si>
+  <si>
+    <t>        if(!this.isEmpty()) {</t>
+  </si>
+  <si>
+    <t>            let total : number = this.cartItems.length;</t>
+  </si>
+  <si>
+    <t>            for(let i : number = 0; i &lt; total; i++){</t>
+  </si>
+  <si>
+    <t>                let cartItemCurrent : CartItem = this.cartItems[i];</t>
+  </si>
+  <si>
+    <t>                xhtmlResult += cartItemCurrent.showCartItemInHTML(i + 1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }   </t>
+  </si>
+  <si>
+    <t>        return xhtmlResult;</t>
+  </si>
+  <si>
+    <t>Thực hiện khi mua 1 sản phẩm nào đó thì sản phẩm đó phải được thêm vào giỏ hàng và hiển thị bên phần giỏ hàng</t>
+  </si>
+  <si>
+    <t>    export const NOTI_GREATER_THAN_ONE: string = "Quantity must equal or greater than 1";</t>
+  </si>
+  <si>
+    <t>    export const NOTI_ACT_ADD : string = "Added successfull !!";</t>
+  </si>
+  <si>
+    <t>    $(MElement.ELM_CART_BODY).html(cartObj.showCartBodyInHTML());</t>
+  </si>
+  <si>
+    <t>        showCart();</t>
+  </si>
+  <si>
+    <t>        showNotification(MNotification.NOTI_ACT_ADD);</t>
+  </si>
+  <si>
+    <t>Hiển thị các sản phẩm có trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thống kê xem trong giỏ hàng có bao nhiêu sản phẩm và tổng giá tiền là bao nhiêu</t>
+  </si>
+  <si>
+    <t>Sau khi mua thành công thì cần phải cập nhật phần hiển thị giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thêm 2 sản phẩm bulbasaur vào giỏ hàng. Tổng số tiền mua bulbasaur sẽ là 69x2 = 138</t>
+  </si>
+  <si>
+    <t>Thêm 1 sản phẩm charmander vào giỏ hàng</t>
   </si>
 </sst>
 </file>
@@ -888,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -922,6 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3575,6 +3727,1048 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>437333</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>114190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873AA325-1214-070F-5A38-B6541FC59CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32594550"/>
+          <a:ext cx="6533333" cy="876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FDCB6F-90B4-CC3B-A890-0CCB37E67C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2571750" y="38671500"/>
+          <a:ext cx="161925" cy="3895725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0027C5F0-902D-C2F7-E8A9-42A501AD535F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="36976050"/>
+          <a:ext cx="847725" cy="5629275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB33541-08B6-042E-CF3C-5E4CB58C7A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="33480375"/>
+          <a:ext cx="19050" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380343</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>85619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A51350-10E1-E4CF-CAB8-C49AEADB5EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="43053000"/>
+          <a:ext cx="5257143" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CCCD8F-B577-7ED9-0E71-725B8EC2C6F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="43910250"/>
+          <a:ext cx="38100" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4E3D6E-AAEA-8B01-C6FC-30AAD058F4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2457450" y="48939450"/>
+          <a:ext cx="285750" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20F9B4F-903C-E7A6-5B95-E216F8881670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="47215425"/>
+          <a:ext cx="800100" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40B8F82-76E9-EA62-8BB9-6079698CC0AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="523875"/>
+          <a:ext cx="285750" cy="26231850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B63ECA-BCB1-04B8-6163-82662A289712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1762125" y="523875"/>
+          <a:ext cx="447675" cy="10601325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D806AE-F4A0-7CD4-3A0E-C1A425DBBFD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2276475" y="11201400"/>
+          <a:ext cx="1381125" cy="16678275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E40E48-47ED-E7B4-EC70-91F8EED2C2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2000250" y="26831925"/>
+          <a:ext cx="1790700" cy="9782175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>18710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE7E1AE-0731-2134-882B-E44C71273876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="54263925"/>
+          <a:ext cx="11277600" cy="3666785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812374BD-3A80-E53C-5A5F-E90ECC99E29B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="56159400"/>
+          <a:ext cx="2562225" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6355A0C2-1056-31B9-06C0-E6D8D55245B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6391275" y="56607075"/>
+          <a:ext cx="1866900" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC38E35-24C1-2C85-755B-C5F8CE1A618F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="54035325"/>
+          <a:ext cx="4133850" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>59573</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="Group 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D63093-5C06-FD3C-9273-01C5A14E26DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="666751" y="58578751"/>
+          <a:ext cx="11182350" cy="4536322"/>
+          <a:chOff x="666751" y="58578751"/>
+          <a:chExt cx="11182350" cy="4536322"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="48" name="Picture 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA0E573-4DBC-9725-6677-D18EF3CE0A9C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="666751" y="58578751"/>
+            <a:ext cx="11182350" cy="4536322"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7648A9-9C81-6CD2-43B2-6B80F870EA26}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6657975" y="61341000"/>
+            <a:ext cx="1704975" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D450F4-DCE4-43F0-BBD4-34F7B0689109}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6667500" y="61369575"/>
+            <a:ext cx="3209925" cy="657225"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB93E88C-6ABD-4716-83D0-3BF505B00D39}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6467475" y="61379100"/>
+            <a:ext cx="2562225" cy="104775"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E663669F-98F3-70A7-04BC-C41565C2D801}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7143750" y="60960000"/>
+            <a:ext cx="0" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7579,8 +8773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B15858-1382-40F4-9D95-1273EA685ECF}">
   <dimension ref="A2:L195"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:H161"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9420,10 +10614,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3EA27B-D0CC-4900-8698-65DC4FC303DD}">
-  <dimension ref="A2:W168"/>
+  <dimension ref="A2:W226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F159" workbookViewId="0">
-      <selection activeCell="V65" sqref="V65"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J223" sqref="J223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12454,7 +13648,7 @@
       <c r="V160" s="21"/>
       <c r="W160" s="29"/>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B161" s="22" t="s">
         <v>195</v>
       </c>
@@ -12479,7 +13673,7 @@
       <c r="V161" s="21"/>
       <c r="W161" s="29"/>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B162" s="22" t="s">
         <v>196</v>
       </c>
@@ -12504,7 +13698,7 @@
       <c r="V162" s="21"/>
       <c r="W162" s="29"/>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B163" s="5" t="s">
         <v>127</v>
       </c>
@@ -12529,7 +13723,7 @@
       <c r="V163" s="21"/>
       <c r="W163" s="29"/>
     </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
         <v>62</v>
       </c>
@@ -12554,7 +13748,7 @@
       <c r="V164" s="21"/>
       <c r="W164" s="29"/>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L165" s="1"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
@@ -12568,7 +13762,7 @@
       <c r="V165" s="21"/>
       <c r="W165" s="29"/>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L166" s="1"/>
       <c r="M166" s="21"/>
       <c r="N166" s="21"/>
@@ -12582,7 +13776,7 @@
       <c r="V166" s="21"/>
       <c r="W166" s="29"/>
     </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L167" s="1"/>
       <c r="M167" s="21"/>
       <c r="N167" s="21"/>
@@ -12596,7 +13790,7 @@
       <c r="V167" s="21"/>
       <c r="W167" s="29"/>
     </row>
-    <row r="168" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L168" s="30"/>
       <c r="M168" s="31"/>
       <c r="N168" s="31"/>
@@ -12610,6 +13804,4062 @@
       <c r="V168" s="31"/>
       <c r="W168" s="32"/>
     </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
+      <c r="B180" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="15"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="17"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="17"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="11"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="17"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="17"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="17"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="11"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="17"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="11"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="17"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="11"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="17"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="11"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="17"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="11"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="17"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="11"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="17"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="11"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="17"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="11"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="17"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="11"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="17"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="11"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="17"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="11"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="17"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="11"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="12"/>
+      <c r="H197" s="17"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="11"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G198" s="12"/>
+      <c r="H198" s="17"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="11"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="17"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="17"/>
+      <c r="I200" t="s">
+        <v>34</v>
+      </c>
+      <c r="J200" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="11"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="17"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="11"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="17"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="11"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="17"/>
+      <c r="I203" t="s">
+        <v>34</v>
+      </c>
+      <c r="J203" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="11"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="17"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="11"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="17"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="11"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="17"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="11"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G207" s="12"/>
+      <c r="H207" s="17"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="11"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G208" s="12"/>
+      <c r="H208" s="17"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="11"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="17"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="11"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="17"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="11"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="17"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="11"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="17"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="11"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="17"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="11"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="17"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="11"/>
+      <c r="B215" s="16"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="17"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="11"/>
+      <c r="B216" s="16"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="17"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="11"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="20"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1429A1-6515-4C1A-BF5D-C9E3F87D3F3B}">
+  <dimension ref="A2:N307"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="O338" sqref="O338"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="17"/>
+      <c r="I36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="17"/>
+      <c r="I39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="6"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="6"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="6"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="6"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="6"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="6"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="6"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="6"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="6"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="6"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="6"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="6"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="6"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="6"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="10"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="15"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="17"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="17"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="33"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="17"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="16"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="33"/>
+      <c r="I164" s="33"/>
+      <c r="J164" s="33"/>
+      <c r="K164" s="17"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33"/>
+      <c r="I165" s="33"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="17"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="33"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="17"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="17"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="33"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="17"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="33"/>
+      <c r="I169" s="33"/>
+      <c r="J169" s="33"/>
+      <c r="K169" s="17"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="17"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="16"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="33"/>
+      <c r="J171" s="33"/>
+      <c r="K171" s="17"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
+      <c r="J172" s="33"/>
+      <c r="K172" s="17"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
+      <c r="J173" s="33"/>
+      <c r="K173" s="17"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
+      <c r="I174" s="33"/>
+      <c r="J174" s="33"/>
+      <c r="K174" s="17"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="33"/>
+      <c r="I175" s="33"/>
+      <c r="J175" s="33"/>
+      <c r="K175" s="17"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="17"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="16"/>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="33"/>
+      <c r="J177" s="33"/>
+      <c r="K177" s="17"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="33"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="33"/>
+      <c r="K178" s="17"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="33"/>
+      <c r="I179" s="33"/>
+      <c r="J179" s="33"/>
+      <c r="K179" s="17"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="16"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="33"/>
+      <c r="I180" s="33"/>
+      <c r="J180" s="33"/>
+      <c r="K180" s="17"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="33"/>
+      <c r="I181" s="33"/>
+      <c r="J181" s="33"/>
+      <c r="K181" s="17"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33"/>
+      <c r="K182" s="17"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="33"/>
+      <c r="I183" s="33"/>
+      <c r="J183" s="33"/>
+      <c r="K183" s="17"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="33"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="33"/>
+      <c r="I184" s="33"/>
+      <c r="J184" s="33"/>
+      <c r="K184" s="17"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="16"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="33"/>
+      <c r="H185" s="33"/>
+      <c r="I185" s="33"/>
+      <c r="J185" s="33"/>
+      <c r="K185" s="17"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="33"/>
+      <c r="J186" s="33"/>
+      <c r="K186" s="17"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="33"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33"/>
+      <c r="J187" s="33"/>
+      <c r="K187" s="17"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
+      <c r="G188" s="33"/>
+      <c r="H188" s="33"/>
+      <c r="I188" s="33"/>
+      <c r="J188" s="33"/>
+      <c r="K188" s="17"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="33"/>
+      <c r="I189" s="33"/>
+      <c r="J189" s="33"/>
+      <c r="K189" s="17"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="16"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
+      <c r="G190" s="33"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="33"/>
+      <c r="J190" s="33"/>
+      <c r="K190" s="17"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="33"/>
+      <c r="H191" s="33"/>
+      <c r="I191" s="33"/>
+      <c r="J191" s="33"/>
+      <c r="K191" s="17"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="33"/>
+      <c r="I192" s="33"/>
+      <c r="J192" s="33"/>
+      <c r="K192" s="17"/>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B193" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
+      <c r="G193" s="33"/>
+      <c r="H193" s="33"/>
+      <c r="I193" s="33"/>
+      <c r="J193" s="33"/>
+      <c r="K193" s="17"/>
+      <c r="L193" t="s">
+        <v>34</v>
+      </c>
+      <c r="M193" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B194" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C194" s="33"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="33"/>
+      <c r="G194" s="33"/>
+      <c r="H194" s="33"/>
+      <c r="I194" s="33"/>
+      <c r="J194" s="33"/>
+      <c r="K194" s="17"/>
+      <c r="L194" t="s">
+        <v>34</v>
+      </c>
+      <c r="M194" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B195" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33"/>
+      <c r="I195" s="33"/>
+      <c r="J195" s="33"/>
+      <c r="K195" s="17"/>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B196" s="16"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="33"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="33"/>
+      <c r="J196" s="33"/>
+      <c r="K196" s="17"/>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B197" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+      <c r="I197" s="33"/>
+      <c r="J197" s="33"/>
+      <c r="K197" s="17"/>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B198" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="33"/>
+      <c r="J198" s="33"/>
+      <c r="K198" s="17"/>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B199" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33"/>
+      <c r="I199" s="33"/>
+      <c r="J199" s="33"/>
+      <c r="K199" s="17"/>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B200" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="33"/>
+      <c r="I200" s="33"/>
+      <c r="J200" s="33"/>
+      <c r="K200" s="17"/>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B201" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33"/>
+      <c r="I201" s="33"/>
+      <c r="J201" s="33"/>
+      <c r="K201" s="17"/>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B202" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="33"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="33"/>
+      <c r="J202" s="33"/>
+      <c r="K202" s="17"/>
+      <c r="L202" t="s">
+        <v>34</v>
+      </c>
+      <c r="M202" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B203" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="33"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="33"/>
+      <c r="I203" s="33"/>
+      <c r="J203" s="33"/>
+      <c r="K203" s="17"/>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B204" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="33"/>
+      <c r="J204" s="33"/>
+      <c r="K204" s="17"/>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B205" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="33"/>
+      <c r="J205" s="33"/>
+      <c r="K205" s="17"/>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B206" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="33"/>
+      <c r="J206" s="33"/>
+      <c r="K206" s="17"/>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B207" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="33"/>
+      <c r="I207" s="33"/>
+      <c r="J207" s="33"/>
+      <c r="K207" s="17"/>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B208" s="16"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="33"/>
+      <c r="I208" s="33"/>
+      <c r="J208" s="33"/>
+      <c r="K208" s="17"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="33"/>
+      <c r="I209" s="33"/>
+      <c r="J209" s="33"/>
+      <c r="K209" s="17"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B210" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="33"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="33"/>
+      <c r="I210" s="33"/>
+      <c r="J210" s="33"/>
+      <c r="K210" s="17"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="33"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="33"/>
+      <c r="I211" s="33"/>
+      <c r="J211" s="33"/>
+      <c r="K211" s="17"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B212" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C212" s="33"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="33"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="33"/>
+      <c r="I212" s="33"/>
+      <c r="J212" s="33"/>
+      <c r="K212" s="17"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B213" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C213" s="33"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="33"/>
+      <c r="J213" s="33"/>
+      <c r="K213" s="17"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B214" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
+      <c r="J214" s="33"/>
+      <c r="K214" s="17"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="33"/>
+      <c r="J215" s="33"/>
+      <c r="K215" s="17"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="33"/>
+      <c r="J216" s="33"/>
+      <c r="K216" s="17"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="33"/>
+      <c r="J217" s="33"/>
+      <c r="K217" s="17"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="16"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
+      <c r="J218" s="33"/>
+      <c r="K218" s="17"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="17"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="33"/>
+      <c r="J220" s="33"/>
+      <c r="K220" s="17"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
+      <c r="J221" s="33"/>
+      <c r="K221" s="17"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C222" s="19"/>
+      <c r="D222" s="19"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="19"/>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="19"/>
+      <c r="K222" s="20"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="33"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="33"/>
+      <c r="J223" s="33"/>
+      <c r="K223" s="33"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B224" s="33"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="33"/>
+      <c r="J224" s="33"/>
+      <c r="K224" s="33"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="11"/>
+      <c r="B234" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="15"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="11"/>
+      <c r="B235" s="16"/>
+      <c r="C235" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="17"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="11"/>
+      <c r="B236" s="16"/>
+      <c r="C236" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="17"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="11"/>
+      <c r="B237" s="16"/>
+      <c r="C237" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="17"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="11"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="17"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="11"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="17"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="11"/>
+      <c r="B240" s="16"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="17"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="11"/>
+      <c r="B241" s="16"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="17"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="11"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F242" s="12"/>
+      <c r="G242" s="12"/>
+      <c r="H242" s="17"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="11"/>
+      <c r="B243" s="16"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="17"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="11"/>
+      <c r="B244" s="16"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="17"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="11"/>
+      <c r="B245" s="16"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="17"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="11"/>
+      <c r="B246" s="16"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246" s="12"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="17"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="11"/>
+      <c r="B247" s="16"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="17"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="11"/>
+      <c r="B248" s="16"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="17"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="11"/>
+      <c r="B249" s="16"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="17"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="11"/>
+      <c r="B250" s="16"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="17"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="11"/>
+      <c r="B251" s="16"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G251" s="12"/>
+      <c r="H251" s="17"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="11"/>
+      <c r="B252" s="16"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G252" s="12"/>
+      <c r="H252" s="17"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="11"/>
+      <c r="B253" s="16"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F253" s="12"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="17"/>
+      <c r="I253" t="s">
+        <v>34</v>
+      </c>
+      <c r="J253" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="11"/>
+      <c r="B254" s="16"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
+      <c r="H254" s="17"/>
+      <c r="I254" t="s">
+        <v>34</v>
+      </c>
+      <c r="J254" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="11"/>
+      <c r="B255" s="16"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" s="12"/>
+      <c r="G255" s="12"/>
+      <c r="H255" s="17"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="11"/>
+      <c r="B256" s="16"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F256" s="12"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="17"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="11"/>
+      <c r="B257" s="16"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F257" s="12"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="17"/>
+      <c r="I257" t="s">
+        <v>34</v>
+      </c>
+      <c r="J257" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="11"/>
+      <c r="B258" s="16"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+      <c r="G258" s="12"/>
+      <c r="H258" s="17"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="11"/>
+      <c r="B259" s="16"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+      <c r="G259" s="12"/>
+      <c r="H259" s="17"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="11"/>
+      <c r="B260" s="16"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F260" s="12"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="17"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="11"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G261" s="12"/>
+      <c r="H261" s="17"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="11"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G262" s="12"/>
+      <c r="H262" s="17"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="11"/>
+      <c r="B263" s="16"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F263" s="12"/>
+      <c r="G263" s="12"/>
+      <c r="H263" s="17"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="11"/>
+      <c r="B264" s="16"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F264" s="12"/>
+      <c r="G264" s="12"/>
+      <c r="H264" s="17"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="11"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F265" s="12"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="17"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="11"/>
+      <c r="B266" s="16"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F266" s="12"/>
+      <c r="G266" s="12"/>
+      <c r="H266" s="17"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="11"/>
+      <c r="B267" s="16"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F267" s="12"/>
+      <c r="G267" s="12"/>
+      <c r="H267" s="17"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="11"/>
+      <c r="B268" s="16"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
+      <c r="G268" s="12"/>
+      <c r="H268" s="17"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="11"/>
+      <c r="B269" s="16"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="12"/>
+      <c r="H269" s="17"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="11"/>
+      <c r="B270" s="16"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+      <c r="G270" s="12"/>
+      <c r="H270" s="17"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="11"/>
+      <c r="B271" s="18"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E271" s="19"/>
+      <c r="F271" s="19"/>
+      <c r="G271" s="19"/>
+      <c r="H271" s="20"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="4"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B276" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C276" s="21"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="21"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="21"/>
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B277" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C277" s="21"/>
+      <c r="D277" s="21"/>
+      <c r="E277" s="21"/>
+      <c r="F277" s="21"/>
+      <c r="G277" s="21"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C278" s="21"/>
+      <c r="D278" s="21"/>
+      <c r="E278" s="21"/>
+      <c r="F278" s="21"/>
+      <c r="G278" s="21"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="21"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="10"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
+++ b/me/3.shopping/4.Xay-dung-chuc-nang-Add-san-pham-vao-gio-hang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894CB392-1F5F-4457-9788-8E472B02485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE3A6E-445F-4C89-A02B-4B6AC6A8DC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empty Cart" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Validate Quantity" sheetId="3" r:id="rId3"/>
     <sheet name="AddProduct, GetCartItemPosition" sheetId="4" r:id="rId4"/>
     <sheet name="ShowCartBodyInHTML, ShowCartIte" sheetId="5" r:id="rId5"/>
+    <sheet name="ShowCartFooterInHTML" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="276">
   <si>
     <t>Khi truy cập vào trang thì giỏ hàng phải ở trạng thái rỗng</t>
   </si>
@@ -831,6 +832,54 @@
   </si>
   <si>
     <t>Thêm 1 sản phẩm charmander vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>        this.totalQuantity += quantity;</t>
+  </si>
+  <si>
+    <t>        this.totalPrice += product.price * quantity;</t>
+  </si>
+  <si>
+    <t>    /*</t>
+  </si>
+  <si>
+    <t>    */</t>
+  </si>
+  <si>
+    <t>        let xhtmlResult : string = `&lt;tr&gt;&lt;th colspan="6"&gt;Empty product in your cart&lt;/th&gt;&lt;/tr&gt;`;</t>
+  </si>
+  <si>
+    <t>            xhtmlResult = `&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;td colspan="4"&gt;There are &lt;b&gt;${ this.totalQuantity }&lt;/b&gt; items in your shopping cart.&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;td colspan="2" class="total-price text-left"&gt;${ Helpers.toCurrency(this.totalPrice, "USD", "right") }&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;/tr&gt;`;</t>
+  </si>
+  <si>
+    <t>comment code</t>
+  </si>
+  <si>
+    <t>    $(MElement.ELM_CART_FOOTER).html(cartObj.showCartFooterInHTML ());</t>
+  </si>
+  <si>
+    <t>Phần cart footer hiển thị thống kê có bao nhiêu sản phẩm trong giỏ hàng và tổng số tiền phải trả để thanh toán toàn bộ giỏ hàng này là bao nhiêu</t>
+  </si>
+  <si>
+    <t>Thông tin phần footer thay đổi khi tiến hành thêm 1 sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Do đó khi cập nhật thông tin phần hiển thị footer của giỏ hàng</t>
+  </si>
+  <si>
+    <t>thì chỉ cần bắt sự kiện thêm sản phẩm vào giỏ hàng là được</t>
+  </si>
+  <si>
+    <t>Thực hiện thêm 2 sản phẩm bulbasaur và 3 sản phẩm charmander vào giỏ hàng</t>
   </si>
 </sst>
 </file>
@@ -4769,6 +4818,523 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8165983D-9F78-08CE-E709-A0E8700491DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="38661975"/>
+          <a:ext cx="4133850" cy="18840450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484952</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>133238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9616EBF5-53EA-A34A-495D-D85B3F8C635D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="35814000"/>
+          <a:ext cx="6580952" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4861F709-B13B-70E5-395A-8E95C7366EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2466975" y="41852850"/>
+          <a:ext cx="76200" cy="3981450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B201B9-4FF3-B0F3-3CC3-B13DB801133E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="40128825"/>
+          <a:ext cx="704850" cy="5667375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B085A5F-72B4-9A9C-4974-EACFC8665F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="36690300"/>
+          <a:ext cx="352425" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8F995D-9B9B-78EE-DF01-E9F123099B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2190750" y="20535900"/>
+          <a:ext cx="1781175" cy="9077325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B50FE9-98DD-0BC6-B70B-F6EF7313CA27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3286125" y="12011025"/>
+          <a:ext cx="38100" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>78450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E519B60-12A9-FC78-5A59-BAD62074E50A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="47139225"/>
+          <a:ext cx="11430000" cy="4564725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEBA225-9BAD-12D6-DE94-165CF6464EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="47024925"/>
+          <a:ext cx="7486650" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01205C7C-3464-B854-4D80-3369CA70957E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="46986825"/>
+          <a:ext cx="6048375" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14376,8 +14942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1429A1-6515-4C1A-BF5D-C9E3F87D3F3B}">
   <dimension ref="A2:N307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="O338" sqref="O338"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A274" sqref="A274:H280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16978,7 +17544,7 @@
       </c>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B203" s="16" t="s">
+      <c r="B203" s="22" t="s">
         <v>254</v>
       </c>
       <c r="C203" s="33"/>
@@ -17862,6 +18428,3120 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A91930D-4CA4-44E1-92D2-FE0D25CA2A41}">
+  <dimension ref="A2:O247"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="K244" sqref="K243:K244"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="17"/>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="6"/>
+      <c r="N62" t="s">
+        <v>34</v>
+      </c>
+      <c r="O62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="6"/>
+      <c r="O63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="6"/>
+      <c r="O64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="6"/>
+      <c r="N86" t="s">
+        <v>34</v>
+      </c>
+      <c r="O86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="22"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="10"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21"/>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="6"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="6"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="21"/>
+      <c r="K142" s="6"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+      <c r="J143" s="21"/>
+      <c r="K143" s="6"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="21"/>
+      <c r="K144" s="6"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="6"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="6"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="6"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="6"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+      <c r="K149" s="6"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21"/>
+      <c r="K150" s="6"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
+      <c r="J151" s="21"/>
+      <c r="K151" s="6"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
+      <c r="J152" s="21"/>
+      <c r="K152" s="6"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21"/>
+      <c r="K153" s="6"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
+      <c r="J154" s="21"/>
+      <c r="K154" s="6"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="21"/>
+      <c r="K155" s="6"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="21"/>
+      <c r="K156" s="6"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="6"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="6"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="6"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="6"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="6"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="21"/>
+      <c r="K162" s="6"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="21"/>
+      <c r="K163" s="6"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="21"/>
+      <c r="K164" s="6"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
+      <c r="J165" s="21"/>
+      <c r="K165" s="6"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="21"/>
+      <c r="J166" s="21"/>
+      <c r="K166" s="6"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="21"/>
+      <c r="K167" s="6"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="21"/>
+      <c r="J168" s="21"/>
+      <c r="K168" s="6"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
+      <c r="J169" s="21"/>
+      <c r="K169" s="6"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="21"/>
+      <c r="K170" s="6"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="21"/>
+      <c r="J171" s="21"/>
+      <c r="K171" s="6"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="21"/>
+      <c r="J172" s="21"/>
+      <c r="K172" s="6"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
+      <c r="J173" s="21"/>
+      <c r="K173" s="6"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
+      <c r="J174" s="21"/>
+      <c r="K174" s="6"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="21"/>
+      <c r="J175" s="21"/>
+      <c r="K175" s="6"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="21"/>
+      <c r="J176" s="21"/>
+      <c r="K176" s="6"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
+      <c r="J177" s="21"/>
+      <c r="K177" s="6"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
+      <c r="J178" s="21"/>
+      <c r="K178" s="6"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
+      <c r="J179" s="21"/>
+      <c r="K179" s="6"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="21"/>
+      <c r="J180" s="21"/>
+      <c r="K180" s="6"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
+      <c r="J181" s="21"/>
+      <c r="K181" s="6"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
+      <c r="J182" s="21"/>
+      <c r="K182" s="6"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
+      <c r="J183" s="21"/>
+      <c r="K183" s="6"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="10"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="11"/>
+      <c r="B197" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
+      <c r="H197" s="15"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="11"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="17"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="11"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="17"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="17"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="11"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="17"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="11"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="17"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="11"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="17"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="11"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="17"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="11"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="17"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="11"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="17"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="11"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="17"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="11"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="17"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="11"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="17"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="11"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="17"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="11"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="17"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="11"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="17"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="11"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="17"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="11"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G214" s="12"/>
+      <c r="H214" s="17"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="11"/>
+      <c r="B215" s="16"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G215" s="12"/>
+      <c r="H215" s="17"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="11"/>
+      <c r="B216" s="16"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="17"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="11"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="17"/>
+      <c r="I217" t="s">
+        <v>34</v>
+      </c>
+      <c r="J217" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="11"/>
+      <c r="B218" s="16"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="17"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="11"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="17"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="11"/>
+      <c r="B220" s="16"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="17"/>
+      <c r="I220" t="s">
+        <v>34</v>
+      </c>
+      <c r="J220" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="11"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="17"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="11"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="17"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="11"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="17"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="11"/>
+      <c r="B224" s="16"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G224" s="12"/>
+      <c r="H224" s="17"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="11"/>
+      <c r="B225" s="16"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G225" s="12"/>
+      <c r="H225" s="17"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="11"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="17"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="11"/>
+      <c r="B227" s="16"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="17"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="11"/>
+      <c r="B228" s="16"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="17"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="11"/>
+      <c r="B229" s="16"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="17"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="11"/>
+      <c r="B230" s="16"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="17"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="11"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="17"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="11"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="17"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="11"/>
+      <c r="B233" s="16"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="17"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="11"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E234" s="19"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="19"/>
+      <c r="H234" s="20"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C240" s="21"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="21"/>
+      <c r="G240" s="21"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C241" s="21"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21"/>
+      <c r="G241" s="21"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C242" s="21"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="21"/>
+      <c r="G242" s="21"/>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B243" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C243" s="9"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="10"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>